--- a/回复.xlsx
+++ b/回复.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基本原则" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>id</t>
   </si>
@@ -1134,15 +1134,62 @@
   <si>
     <t>10:00-20:00</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UI框架没有提供类似需求这么丰富的api。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>肯定需要重构页面。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">
+不确定能否实现</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UI框架没有提供类似需求这么丰富的api。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>肯定需要重构页面。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">
+不确定能否实现</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="64" formatCode="&quot;¥&quot;#,##0;\\\-&quot;¥&quot;#,##0"/>
+    <numFmt numFmtId="65" formatCode="mm&quot;月&quot;\ dd&quot;日&quot;"/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="48">
     <font>
       <sz val="11.0"/>
       <name val="宋体"/>
@@ -1329,26 +1376,11 @@
       <color theme="5"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="宋体"/>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
       <sz val="12.0"/>
       <name val="华文细黑"/>
       <color theme="9"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="宋体"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="16.0"/>
-      <name val="宋体"/>
-      <color theme="1"/>
-    </font>
-    <font>
       <sz val="16.0"/>
       <name val="宋体"/>
       <color rgb="FFFF0000"/>
@@ -1361,7 +1393,7 @@
     <font>
       <sz val="11.0"/>
       <name val="SimSun"/>
-      <color/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -1388,7 +1420,7 @@
       <b/>
       <sz val="11.0"/>
       <name val="SimSun"/>
-      <color/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -1397,8 +1429,18 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <name val="宋体"/>
-      <color theme="4"/>
+      <name val="SimSun"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="SimSun"/>
+      <color theme="9"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <color theme="9"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1603,7 +1645,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -1618,33 +1662,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1659,9 +1695,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1676,9 +1710,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -1693,17 +1725,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -1712,9 +1740,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1866,7 +1892,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1933,41 +1959,44 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" indent="-360"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" indent="-360"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1975,26 +2004,26 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2002,11 +2031,20 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2381,8 +2419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="B1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
@@ -2451,7 +2489,7 @@
       <c r="C3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="28" t="s">
         <v>140</v>
       </c>
       <c r="E3" s="24" t="s">
@@ -2468,22 +2506,22 @@
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="48" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2491,22 +2529,22 @@
       <c r="A5" s="10">
         <v>7</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="40" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2537,22 +2575,22 @@
       <c r="A7" s="22">
         <v>12</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" s="34" t="s">
+      <c r="D7" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="47" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2669,7 +2707,7 @@
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="38" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="0" t="s">
@@ -2683,7 +2721,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="29.250000" customHeight="1">
-      <c r="B14" s="42"/>
+      <c r="B14" s="39"/>
       <c r="D14" s="13" t="s">
         <v>154</v>
       </c>
@@ -2705,10 +2743,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
@@ -2716,9 +2754,17 @@
     <col min="1" max="1" width="19.99494182" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="0" t="s">
         <v>174</v>
+      </c>
+      <c r="B1" s="0">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="0">
+        <v>8.13</v>
       </c>
     </row>
   </sheetData>

--- a/回复.xlsx
+++ b/回复.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基本原则" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>id</t>
   </si>
@@ -1179,6 +1179,15 @@
       <t xml:space="preserve">
 不确定能否实现</t>
     </r>
+  </si>
+  <si>
+    <t>修复了本地看他人收藏读不出数据的问题</t>
+  </si>
+  <si>
+    <t>12:00-6:00</t>
+  </si>
+  <si>
+    <t>13:00-6:30</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1198,7 @@
     <numFmt numFmtId="64" formatCode="&quot;¥&quot;#,##0;\\\-&quot;¥&quot;#,##0"/>
     <numFmt numFmtId="65" formatCode="mm&quot;月&quot;\ dd&quot;日&quot;"/>
   </numFmts>
-  <fonts count="48">
+  <fonts count="47">
     <font>
       <sz val="11.0"/>
       <name val="宋体"/>
@@ -1426,11 +1435,6 @@
       <sz val="11.0"/>
       <name val="宋体"/>
       <color theme="4"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="SimSun"/>
-      <color theme="1"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -1645,9 +1649,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1662,25 +1664,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -1695,7 +1705,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -1710,7 +1722,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -1725,13 +1739,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -1740,7 +1758,9 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1892,7 +1912,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2037,13 +2057,7 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2367,7 +2381,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
@@ -2417,10 +2431,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G5"/>
+      <selection activeCell="D15" sqref="D15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
@@ -2506,22 +2520,22 @@
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="11" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2529,22 +2543,22 @@
       <c r="A5" s="10">
         <v>7</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="46" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2575,22 +2589,22 @@
       <c r="A7" s="22">
         <v>12</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="45" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2728,6 +2742,16 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="D15" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2743,10 +2767,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
@@ -2763,8 +2787,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
+      <c r="A2" s="0" t="s">
+        <v>178</v>
+      </c>
       <c r="B2" s="0">
         <v>8.13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="0">
+        <v>8.14</v>
       </c>
     </row>
   </sheetData>
